--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.588675333333333</v>
+        <v>7.787422666666667</v>
       </c>
       <c r="H2">
-        <v>10.766026</v>
+        <v>23.362268</v>
       </c>
       <c r="I2">
-        <v>0.1217029912931363</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="J2">
-        <v>0.1217029912931362</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>84.82120407002421</v>
+        <v>14.94333467541022</v>
       </c>
       <c r="R2">
-        <v>763.390836630218</v>
+        <v>134.490012078692</v>
       </c>
       <c r="S2">
-        <v>0.008309691103981474</v>
+        <v>0.001409871616647264</v>
       </c>
       <c r="T2">
-        <v>0.008309691103981474</v>
+        <v>0.001409871616647264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.588675333333333</v>
+        <v>7.787422666666667</v>
       </c>
       <c r="H3">
-        <v>10.766026</v>
+        <v>23.362268</v>
       </c>
       <c r="I3">
-        <v>0.1217029912931363</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="J3">
-        <v>0.1217029912931362</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>650.5851781976138</v>
+        <v>1411.769327872737</v>
       </c>
       <c r="R3">
-        <v>5855.266603778525</v>
+        <v>12705.92395085463</v>
       </c>
       <c r="S3">
-        <v>0.06373597176465277</v>
+        <v>0.1331974119468964</v>
       </c>
       <c r="T3">
-        <v>0.06373597176465275</v>
+        <v>0.1331974119468964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.588675333333333</v>
+        <v>7.787422666666667</v>
       </c>
       <c r="H4">
-        <v>10.766026</v>
+        <v>23.362268</v>
       </c>
       <c r="I4">
-        <v>0.1217029912931363</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="J4">
-        <v>0.1217029912931362</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>108.1735817272298</v>
+        <v>226.2065019425062</v>
       </c>
       <c r="R4">
-        <v>973.5622355450679</v>
+        <v>2035.858517482556</v>
       </c>
       <c r="S4">
-        <v>0.01059745684607938</v>
+        <v>0.02134209890343962</v>
       </c>
       <c r="T4">
-        <v>0.01059745684607938</v>
+        <v>0.02134209890343962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.588675333333333</v>
+        <v>7.787422666666667</v>
       </c>
       <c r="H5">
-        <v>10.766026</v>
+        <v>23.362268</v>
       </c>
       <c r="I5">
-        <v>0.1217029912931363</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="J5">
-        <v>0.1217029912931362</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>398.7037901462904</v>
+        <v>637.591378654921</v>
       </c>
       <c r="R5">
-        <v>3588.334111316614</v>
+        <v>5738.322407894288</v>
       </c>
       <c r="S5">
-        <v>0.03905987157842265</v>
+        <v>0.06015538079755241</v>
       </c>
       <c r="T5">
-        <v>0.03905987157842264</v>
+        <v>0.06015538079755241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.16892433333333</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H6">
-        <v>54.506773</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I6">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605992</v>
       </c>
       <c r="J6">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605993</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>429.4370193636432</v>
+        <v>34.86446397308745</v>
       </c>
       <c r="R6">
-        <v>3864.933174272789</v>
+        <v>313.780175757787</v>
       </c>
       <c r="S6">
-        <v>0.04207071826733817</v>
+        <v>0.003289387493018034</v>
       </c>
       <c r="T6">
-        <v>0.04207071826733817</v>
+        <v>0.003289387493018035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.16892433333333</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H7">
-        <v>54.506773</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I7">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605992</v>
       </c>
       <c r="J7">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
-        <v>3293.815064647056</v>
+        <v>3293.815064647057</v>
       </c>
       <c r="R7">
-        <v>29644.3355818235</v>
+        <v>29644.33558182351</v>
       </c>
       <c r="S7">
-        <v>0.3226856543826235</v>
+        <v>0.3107643956989523</v>
       </c>
       <c r="T7">
-        <v>0.3226856543826234</v>
+        <v>0.3107643956989524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.16892433333333</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H8">
-        <v>54.506773</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I8">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605992</v>
       </c>
       <c r="J8">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605993</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>547.6666008240237</v>
+        <v>527.7649606837936</v>
       </c>
       <c r="R8">
-        <v>4928.999407416213</v>
+        <v>4749.884646154142</v>
       </c>
       <c r="S8">
-        <v>0.05365333268622467</v>
+        <v>0.04979349352012109</v>
       </c>
       <c r="T8">
-        <v>0.05365333268622467</v>
+        <v>0.0497934935201211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.16892433333333</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H9">
-        <v>54.506773</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I9">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605992</v>
       </c>
       <c r="J9">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605993</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>2018.577419722327</v>
+        <v>1487.57169223043</v>
       </c>
       <c r="R9">
-        <v>18167.19677750095</v>
+        <v>13388.14523007387</v>
       </c>
       <c r="S9">
-        <v>0.1977542645293848</v>
+        <v>0.1403492026485078</v>
       </c>
       <c r="T9">
-        <v>0.1977542645293848</v>
+        <v>0.1403492026485078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.174840666666667</v>
+        <v>6.195365666666667</v>
       </c>
       <c r="H10">
-        <v>15.524522</v>
+        <v>18.586097</v>
       </c>
       <c r="I10">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="J10">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>122.3114869545718</v>
+        <v>11.88832641508256</v>
       </c>
       <c r="R10">
-        <v>1100.803382591146</v>
+        <v>106.994937735743</v>
       </c>
       <c r="S10">
-        <v>0.01198250704177797</v>
+        <v>0.00112163813139002</v>
       </c>
       <c r="T10">
-        <v>0.01198250704177797</v>
+        <v>0.00112163813139002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.174840666666667</v>
+        <v>6.195365666666667</v>
       </c>
       <c r="H11">
-        <v>15.524522</v>
+        <v>18.586097</v>
       </c>
       <c r="I11">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="J11">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>938.1385398663144</v>
+        <v>1123.147875431765</v>
       </c>
       <c r="R11">
-        <v>8443.246858796829</v>
+        <v>10108.33087888588</v>
       </c>
       <c r="S11">
-        <v>0.09190675332306748</v>
+        <v>0.1059665961624092</v>
       </c>
       <c r="T11">
-        <v>0.09190675332306746</v>
+        <v>0.1059665961624092</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.174840666666667</v>
+        <v>6.195365666666667</v>
       </c>
       <c r="H12">
-        <v>15.524522</v>
+        <v>18.586097</v>
       </c>
       <c r="I12">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="J12">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>155.9854257590662</v>
+        <v>179.9609518705166</v>
       </c>
       <c r="R12">
-        <v>1403.868831831596</v>
+        <v>1619.648566834649</v>
       </c>
       <c r="S12">
-        <v>0.01528144664995328</v>
+        <v>0.01697893031630843</v>
       </c>
       <c r="T12">
-        <v>0.01528144664995328</v>
+        <v>0.01697893031630844</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.174840666666667</v>
+        <v>6.195365666666667</v>
       </c>
       <c r="H13">
-        <v>15.524522</v>
+        <v>18.586097</v>
       </c>
       <c r="I13">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="J13">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>574.9276252546176</v>
+        <v>507.2424993174503</v>
       </c>
       <c r="R13">
-        <v>5174.348627291558</v>
+        <v>4565.182493857053</v>
       </c>
       <c r="S13">
-        <v>0.05632401738918308</v>
+        <v>0.04785724325117949</v>
       </c>
       <c r="T13">
-        <v>0.05632401738918307</v>
+        <v>0.04785724325117949</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.554717666666666</v>
+        <v>3.883692333333334</v>
       </c>
       <c r="H14">
-        <v>7.664153</v>
+        <v>11.651077</v>
       </c>
       <c r="I14">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="J14">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>60.3827898647921</v>
+        <v>7.452441815151444</v>
       </c>
       <c r="R14">
-        <v>543.4451087831289</v>
+        <v>67.07197633636299</v>
       </c>
       <c r="S14">
-        <v>0.005915529463114144</v>
+        <v>0.0007031219214535059</v>
       </c>
       <c r="T14">
-        <v>0.005915529463114144</v>
+        <v>0.0007031219214535059</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.554717666666666</v>
+        <v>3.883692333333334</v>
       </c>
       <c r="H15">
-        <v>7.664153</v>
+        <v>11.651077</v>
       </c>
       <c r="I15">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="J15">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>463.1406561008469</v>
+        <v>704.0683355435999</v>
       </c>
       <c r="R15">
-        <v>4168.265904907622</v>
+        <v>6336.615019892399</v>
       </c>
       <c r="S15">
-        <v>0.04537256729716042</v>
+        <v>0.06642733928033058</v>
       </c>
       <c r="T15">
-        <v>0.04537256729716041</v>
+        <v>0.06642733928033058</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.554717666666666</v>
+        <v>3.883692333333334</v>
       </c>
       <c r="H16">
-        <v>7.664153</v>
+        <v>11.651077</v>
       </c>
       <c r="I16">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="J16">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>77.00695511189488</v>
+        <v>112.8122223421455</v>
       </c>
       <c r="R16">
-        <v>693.0625960070539</v>
+        <v>1015.310001079309</v>
       </c>
       <c r="S16">
-        <v>0.00754415145191455</v>
+        <v>0.01064359152397321</v>
       </c>
       <c r="T16">
-        <v>0.00754415145191455</v>
+        <v>0.01064359152397321</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.554717666666666</v>
+        <v>3.883692333333334</v>
       </c>
       <c r="H17">
-        <v>7.664153</v>
+        <v>11.651077</v>
       </c>
       <c r="I17">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="J17">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>283.8305284940852</v>
+        <v>317.9753886585258</v>
       </c>
       <c r="R17">
-        <v>2554.474756446767</v>
+        <v>2861.778497926732</v>
       </c>
       <c r="S17">
-        <v>0.02780606622512175</v>
+        <v>0.03000029678782062</v>
       </c>
       <c r="T17">
-        <v>0.02780606622512175</v>
+        <v>0.03000029678782062</v>
       </c>
     </row>
   </sheetData>
